--- a/biology/Zoologie/Gerris/Gerris.xlsx
+++ b/biology/Zoologie/Gerris/Gerris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerris est un genre d'insectes hémiptères hétéroptères (même sous-ordre que les punaises) qui ont la capacité de se déplacer sur l'eau. 
-On les appelle parfois « punaises d'eau », et communément, mais improprement, « araignées d'eau » (sans doute du fait de leurs longues pattes). Leur adresse à se déplacer sur l'eau leur vaut aussi le nom de « patineuses », « patineurs d'eau » ou « patineurs des étangs ». Parmi les noms vernaculaires, on peut aussi trouver le nom de « ciseau », « skater » ou « punaise de Jésus »[2].
+On les appelle parfois « punaises d'eau », et communément, mais improprement, « araignées d'eau » (sans doute du fait de leurs longues pattes). Leur adresse à se déplacer sur l'eau leur vaut aussi le nom de « patineuses », « patineurs d'eau » ou « patineurs des étangs ». Parmi les noms vernaculaires, on peut aussi trouver le nom de « ciseau », « skater » ou « punaise de Jésus ».
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Comment les Gerris marchent-ils sur l'eau ?</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur mode, original, de déplacement (partagé avec quelques autres espèces dont certaines araignées (ex.: Dolomedes fimbriatus, Dolomedes triton[3]) est un exemple classique pour les  cours d'introduction à la locomotion animale[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur mode, original, de déplacement (partagé avec quelques autres espèces dont certaines araignées (ex.: Dolomedes fimbriatus, Dolomedes triton) est un exemple classique pour les  cours d'introduction à la locomotion animale.
 Il est permis par un double phénomène, différent de celui qui fait flotter des objets creux ou plus légers que l'eau en surface :
-la tension superficielle de l'eau repousse les substances hydrophobes posées à sa surface. Les pattes des Gerris sont munies de poils très hydrophobes qui empêchent la pénétration dans l'eau. En effet, les deux paires de pattes possèdent des tarses, munis de poils hydrofuges (c'est-à-dire qui préservent de l'eau)[5].
-d'autre part, la dépression topographique créée (comme si on appuyait sur une nappe tendue avec le doigt) entraîne, du fait de la tension superficielle de l'eau, une surpression qui permet de porter l'animal. Si les Gerris étaient plus lourds, cette tension superficielle serait insuffisante pour assurer leur sustentation[2].
+la tension superficielle de l'eau repousse les substances hydrophobes posées à sa surface. Les pattes des Gerris sont munies de poils très hydrophobes qui empêchent la pénétration dans l'eau. En effet, les deux paires de pattes possèdent des tarses, munis de poils hydrofuges (c'est-à-dire qui préservent de l'eau).
+d'autre part, la dépression topographique créée (comme si on appuyait sur une nappe tendue avec le doigt) entraîne, du fait de la tension superficielle de l'eau, une surpression qui permet de porter l'animal. Si les Gerris étaient plus lourds, cette tension superficielle serait insuffisante pour assurer leur sustentation.
 Si on diminue la tension superficielle de l'eau en y ajoutant une ou quelques gouttes de tensioactifs (typiquement, une goutte de détergent liquide), le Gerris n'est plus porté et crève la surface de l'eau. C'est pourquoi le Gerris marchant normalement sur l'eau est considéré comme bioindicateur d'une eau non polluée par un tensioactif.
 </t>
         </is>
@@ -547,10 +561,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gerris possède 6 pattes : c'est un hexapode. Les pattes postérieures ont une fonction de gouvernail. Les pattes médianes, qui sont les plus longues, permettent la propulsion par saccades. Les pattes antérieures, plus petites, sont spécialisées dans la prédation. 
-Un Gerris peut, pour certaines espèces, effectuer un déplacement de l'ordre du mètre en une seule propulsion. On notera que les pattes P2 et P3 sont de taille comparable, au moins aussi longues que le corps, et qu'elles sont disposées en forme de X, ce qui permet à cet animal une bonne stabilisation sur l'eau[6],[7]
+Un Gerris peut, pour certaines espèces, effectuer un déplacement de l'ordre du mètre en une seule propulsion. On notera que les pattes P2 et P3 sont de taille comparable, au moins aussi longues que le corps, et qu'elles sont disposées en forme de X, ce qui permet à cet animal une bonne stabilisation sur l'eau,
 Les ailes sont variablement développées ; les individus ailés peuvent se déplacer assez loin de l'eau. 
 Le Gerris peut infliger une piqûre douloureuse s'il est manipulé sans précaution.
 </t>
@@ -583,15 +599,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liste des sous-genres
-Selon Catalogue of Life                                   (13 juin 2022)[8] :
+          <t>Liste des sous-genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (13 juin 2022) :
 sous-genre Gerris (Gerris) Fabricius, 1794
 sous-genre Gerris (Gerriselloides) Hungerford &amp; Matsuda, 1958
 sous-genre Gerris (Macrogerris) Andersen, 1993
-Selon ITIS      (26 octobre 2015)[1] :
-sous-genre Gerris (Gerris) Fabricius, 1794
-Liste des espèces
-Selon NCBI  (26 octobre 2015)[9] :
+Selon ITIS      (26 octobre 2015) :
+sous-genre Gerris (Gerris) Fabricius, 1794</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gerris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gerris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (26 octobre 2015) :
 Gerris alacris
 Gerris argentatus
 Gerris argenticollis
@@ -622,107 +677,151 @@
 Gerris swakopensis
 Gerris thoracicus
 Gerris yezoensis
-Selon World Register of Marine Species                               (26 octobre 2015)[10] :
+Selon World Register of Marine Species                               (26 octobre 2015) :
 Gerris comatus Drake &amp; Hottes, 1925</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Gerris</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gerris</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reproduction
-On compte deux générations de Gerris par an. La première naît entre mai et juillet et dure environ 4 mois. La seconde naît entre août et septembre puis hiberne dans les berges pour se reproduire au printemps suivant. Le mâle meurt peu de temps après l'accouplement.
-Alimentation
-Les petites pattes antérieures permettent d'attraper les proies (insectes) et de les maintenir accolées à l'appareil mandibulaire modifié, comme chez la plupart des hémiptères, en suçoir.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On compte deux générations de Gerris par an. La première naît entre mai et juillet et dure environ 4 mois. La seconde naît entre août et septembre puis hiberne dans les berges pour se reproduire au printemps suivant. Le mâle meurt peu de temps après l'accouplement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gerris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gerris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les petites pattes antérieures permettent d'attraper les proies (insectes) et de les maintenir accolées à l'appareil mandibulaire modifié, comme chez la plupart des hémiptères, en suçoir.
 Le Gerris attrape aussi bien ce qui vit sur l'eau, que ce qui vit dans l'eau (et vient à la surface), que ce qui tombe dans l'eau. Il utilise un procédé analogue à celui de l'araignée avec sa toile : ce sont les ondes générées par les mouvements sur l'eau qui lui permettent de localiser ses proies. Les vibrations transmises par la surface de l'eau leur permettent également de communiquer entre eux.
 Les téguments des proies sont percés par les pièces buccales, le Gerris injecte alors des sucs digestifs puis il suce le contenu liquéfié de ses victimes dont il va laisser les enveloppes vides.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Gerris</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gerris</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les Gerris sont de petits prédateurs et des fossoyeurs qui, d'un certain point de vue, entretiennent la surface de l'eau en y jouant un rôle peut-être important, à l'échelle d'une mare par exemple.
-En parcourant incessamment cette surface, ils contribuent à micromélanger les couches superficielles, et le biofilm qui se forme naturellement sur cet écotone (interface eau/air)[11]. Il est ainsi mieux exposé au pouvoir désinfectant des UV, et l'eau y est moins stagnante, mieux oxygénée et thermiquement mélangée.
+En parcourant incessamment cette surface, ils contribuent à micromélanger les couches superficielles, et le biofilm qui se forme naturellement sur cet écotone (interface eau/air). Il est ainsi mieux exposé au pouvoir désinfectant des UV, et l'eau y est moins stagnante, mieux oxygénée et thermiquement mélangée.
 Ils constituent eux-mêmes une nourriture pour d'autres espèces.
 Ce sont des bioindicateurs de tensioactif faciles à observer.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Gerris</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gerris</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Micro-robots imitant les Gerris</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette capacité originale de déplacement sur l'eau a donné l'idée à certains[12][Qui ?] d'inventer des micro-robots capables de se déplacer sur l'eau, avec une grande manœuvrabilité[13] en utilisant sa tension superficielle pour ne pas couler et avec un mouvement de pattes plus ou moins biomimétique[14] (mais animées par un micro-ressort ou petit élastique) pour le faire avancer[11],[15].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette capacité originale de déplacement sur l'eau a donné l'idée à certains[Qui ?] d'inventer des micro-robots capables de se déplacer sur l'eau, avec une grande manœuvrabilité en utilisant sa tension superficielle pour ne pas couler et avec un mouvement de pattes plus ou moins biomimétique (mais animées par un micro-ressort ou petit élastique) pour le faire avancer,.
 </t>
         </is>
       </c>
